--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,93 +522,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2081553333333333</v>
+        <v>0.5282253333333333</v>
       </c>
       <c r="H2">
-        <v>0.624466</v>
+        <v>1.584676</v>
       </c>
       <c r="I2">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="J2">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.970254666666667</v>
+        <v>22.569632</v>
       </c>
       <c r="N2">
-        <v>11.910764</v>
+        <v>67.708896</v>
       </c>
       <c r="O2">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8264296835582222</v>
+        <v>11.92185138641067</v>
       </c>
       <c r="R2">
-        <v>7.437867152023999</v>
+        <v>107.296662477696</v>
       </c>
       <c r="S2">
-        <v>0.04276177390089947</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="T2">
-        <v>0.04276177390089947</v>
+        <v>0.5375365413017625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2081553333333333</v>
+        <v>0.2859449999999999</v>
       </c>
       <c r="H3">
-        <v>0.624466</v>
+        <v>0.8578349999999999</v>
       </c>
       <c r="I3">
-        <v>0.3348106193020118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="J3">
-        <v>0.3348106193020118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,122 +617,122 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.115533</v>
+        <v>22.569632</v>
       </c>
       <c r="N3">
-        <v>81.34659900000001</v>
+        <v>67.708896</v>
       </c>
       <c r="O3">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.644242810126</v>
+        <v>6.453673422239999</v>
       </c>
       <c r="R3">
-        <v>50.798185291134</v>
+        <v>58.08306080015999</v>
       </c>
       <c r="S3">
-        <v>0.2920488454011124</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="T3">
-        <v>0.2920488454011124</v>
+        <v>0.2909854499642813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2859450000000001</v>
+        <v>0.1276103333333333</v>
       </c>
       <c r="H4">
-        <v>0.8578350000000001</v>
+        <v>0.382831</v>
       </c>
       <c r="I4">
-        <v>0.459932594583118</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="J4">
-        <v>0.459932594583118</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.970254666666667</v>
+        <v>22.569632</v>
       </c>
       <c r="N4">
-        <v>11.910764</v>
+        <v>67.708896</v>
       </c>
       <c r="O4">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.13527447066</v>
+        <v>2.880118262730667</v>
       </c>
       <c r="R4">
-        <v>10.21747023594</v>
+        <v>25.921064364576</v>
       </c>
       <c r="S4">
-        <v>0.05874226349277319</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="T4">
-        <v>0.05874226349277319</v>
+        <v>0.1298597641682559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2859450000000001</v>
+        <v>0.04089733333333333</v>
       </c>
       <c r="H5">
-        <v>0.8578350000000001</v>
+        <v>0.122692</v>
       </c>
       <c r="I5">
-        <v>0.459932594583118</v>
+        <v>0.0416182445657004</v>
       </c>
       <c r="J5">
-        <v>0.459932594583118</v>
+        <v>0.0416182445657004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,152 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.115533</v>
+        <v>22.569632</v>
       </c>
       <c r="N5">
-        <v>81.34659900000001</v>
+        <v>67.708896</v>
       </c>
       <c r="O5">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>7.753551083685003</v>
+        <v>0.9230377631146667</v>
       </c>
       <c r="R5">
-        <v>69.78195975316503</v>
+        <v>8.307339868031999</v>
       </c>
       <c r="S5">
-        <v>0.4011903310903449</v>
+        <v>0.0416182445657004</v>
       </c>
       <c r="T5">
-        <v>0.4011903310903449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1276103333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.382831</v>
-      </c>
-      <c r="I6">
-        <v>0.2052567861148701</v>
-      </c>
-      <c r="J6">
-        <v>0.2052567861148701</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>3.970254666666667</v>
-      </c>
-      <c r="N6">
-        <v>11.910764</v>
-      </c>
-      <c r="O6">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="P6">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="Q6">
-        <v>0.5066455214315556</v>
-      </c>
-      <c r="R6">
-        <v>4.559809692884</v>
-      </c>
-      <c r="S6">
-        <v>0.02621525057289787</v>
-      </c>
-      <c r="T6">
-        <v>0.02621525057289787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1276103333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.382831</v>
-      </c>
-      <c r="I7">
-        <v>0.2052567861148701</v>
-      </c>
-      <c r="J7">
-        <v>0.2052567861148701</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.115533</v>
-      </c>
-      <c r="N7">
-        <v>81.34659900000001</v>
-      </c>
-      <c r="O7">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="P7">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="Q7">
-        <v>3.460222204641</v>
-      </c>
-      <c r="R7">
-        <v>31.141999841769</v>
-      </c>
-      <c r="S7">
-        <v>0.1790415355419722</v>
-      </c>
-      <c r="T7">
-        <v>0.1790415355419723</v>
+        <v>0.0416182445657004</v>
       </c>
     </row>
   </sheetData>
